--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>#</t>
   </si>
@@ -572,6 +572,423 @@
   </si>
   <si>
     <t>89648763017</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>проспект строителей 114</t>
+  </si>
+  <si>
+    <t> дал арб</t>
+  </si>
+  <si>
+    <t> 9624741274</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>чапаева 119</t>
+  </si>
+  <si>
+    <t> 2х ком квартра</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>проспект победы 14</t>
+  </si>
+  <si>
+    <t> ближ арб</t>
+  </si>
+  <si>
+    <t> 9276481836</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>калинина 104</t>
+  </si>
+  <si>
+    <t> 2х км квартира</t>
+  </si>
+  <si>
+    <t> южка</t>
+  </si>
+  <si>
+    <t> 9033233547</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>олимпийская 10</t>
+  </si>
+  <si>
+    <t> 9273675472</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>проспект строителей 156а</t>
+  </si>
+  <si>
+    <t> запрудный</t>
+  </si>
+  <si>
+    <t> 9875049936</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>терешковой 10</t>
+  </si>
+  <si>
+    <t> 6000</t>
+  </si>
+  <si>
+    <t> 9003189880</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>ново-казанская 8б</t>
+  </si>
+  <si>
+    <t> 89996103661</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>терновского 162а</t>
+  </si>
+  <si>
+    <t> 9273908706</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>радужная 8</t>
+  </si>
+  <si>
+    <t> 9022085611</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>тамбовская 1</t>
+  </si>
+  <si>
+    <t> 19000</t>
+  </si>
+  <si>
+    <t> 9273939316</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>суворова 194</t>
+  </si>
+  <si>
+    <t> 9656333832</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>пушанина 38</t>
+  </si>
+  <si>
+    <t> 9023433145</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>пушанина 40</t>
+  </si>
+  <si>
+    <t> терновка 9270974462</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>калинина 9</t>
+  </si>
+  <si>
+    <t> 27 за все</t>
+  </si>
+  <si>
+    <t> 9033237573</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>антонова 5в</t>
+  </si>
+  <si>
+    <t> нес сма и холодильника</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>антонова 5а</t>
+  </si>
+  <si>
+    <t> 9042656555</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>новый кавказ 6</t>
+  </si>
+  <si>
+    <t> 9875148842</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>9636803853</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>5713 пушкина 7 1-ком квартира Центр 12000 руб</t>
+  </si>
+  <si>
+    <t> 9636803853 Архив</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Пушкина 43 89053668190 13+</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>терновского 158а</t>
+  </si>
+  <si>
+    <t> 89063981260</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>терешковой 11</t>
+  </si>
+  <si>
+    <t> 9272890724</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>проспект строителей 10</t>
+  </si>
+  <si>
+    <t> 89289672744</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>попова 10</t>
+  </si>
+  <si>
+    <t> 2хком квартира</t>
+  </si>
+  <si>
+    <t> зап пол</t>
+  </si>
+  <si>
+    <t> 9063984221</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>суворова 169а</t>
+  </si>
+  <si>
+    <t> 8000 9023545312</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Минская 2</t>
+  </si>
+  <si>
+    <t> +7 (927) 381-71-55</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1-к квартира, Антонова 70, есть всё; 12000+к/у89063954908 НатальяАктивно</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>пушкина 43</t>
+  </si>
+  <si>
+    <t> 14000</t>
+  </si>
+  <si>
+    <t> 9374196577</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>На фабричной, он её уже больше месяца сдаёт</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Это по поводу этой</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>ватутина 8</t>
+  </si>
+  <si>
+    <t> 89273989489</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>проспект строителей 71</t>
+  </si>
+  <si>
+    <t> 89042656555</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>герцена 7</t>
+  </si>
+  <si>
+    <t> автовокзал 9374165519</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>ворошилова 13</t>
+  </si>
+  <si>
+    <t> 89063976463</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>терновского 214</t>
+  </si>
+  <si>
+    <t> 9374231817</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>ивановская 143</t>
+  </si>
+  <si>
+    <t> 1ком квартра</t>
+  </si>
+  <si>
+    <t> 89063992295</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>терновкого 212</t>
+  </si>
+  <si>
+    <t> 9374145220</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>ладожская 109</t>
+  </si>
+  <si>
+    <t> 9099945827</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>терновского 192</t>
+  </si>
+  <si>
+    <t> 89374047789</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t> с 15</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -730,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2622,9 +3039,1925 @@
       <c r="M51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="12"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="10"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="10"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="10"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="10"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="10"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="10"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="10"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="10"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="10"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="10"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="10"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="10"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="10"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="10"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="10"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="10"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="10"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="10"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="10"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="10"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="10"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="10"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="10"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="10"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="10"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="10"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="10"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="10"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="10"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="10"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="10"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="10"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="10"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P95" s="10"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="10"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O97" s="4"/>
+      <c r="P97" s="10"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="10"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="10"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2810,6 +5143,214 @@
     <hyperlink ref="K51" r:id="rId177" display="№5" address="https://sun9-39.userapi.com/c639321/v639321028/15f1d/mdFTyYzNkLM.jpg" tooltip="https://sun9-39.userapi.com/c639321/v639321028/15f1d/mdFTyYzNkLM.jpg"/>
     <hyperlink ref="L51" r:id="rId178" display="№6" address="https://sun9-23.userapi.com/c639321/v639321028/15f26/lwE5gpDZ-7k.jpg" tooltip="https://sun9-23.userapi.com/c639321/v639321028/15f26/lwE5gpDZ-7k.jpg"/>
     <hyperlink ref="M51" r:id="rId179" display="№7" address="https://sun9-43.userapi.com/c639321/v639321028/15f2f/ri07508KyCw.jpg" tooltip="https://sun9-43.userapi.com/c639321/v639321028/15f2f/ri07508KyCw.jpg"/>
+    <hyperlink ref="G52" r:id="rId180" display="№1" address="https://sun9-70.userapi.com/c636423/v636423028/4d5dc/aoCiOFmjIgc.jpg" tooltip="https://sun9-70.userapi.com/c636423/v636423028/4d5dc/aoCiOFmjIgc.jpg"/>
+    <hyperlink ref="H52" r:id="rId181" display="№2" address="https://sun9-38.userapi.com/c636423/v636423028/4d5e5/HHJTia2hiBk.jpg" tooltip="https://sun9-38.userapi.com/c636423/v636423028/4d5e5/HHJTia2hiBk.jpg"/>
+    <hyperlink ref="I52" r:id="rId182" display="№3" address="https://sun9-42.userapi.com/c636423/v636423028/4d5ee/MaIjcWwmulY.jpg" tooltip="https://sun9-42.userapi.com/c636423/v636423028/4d5ee/MaIjcWwmulY.jpg"/>
+    <hyperlink ref="J52" r:id="rId183" display="№4" address="https://sun9-26.userapi.com/c636423/v636423028/4d5f7/M-959ndrAXI.jpg" tooltip="https://sun9-26.userapi.com/c636423/v636423028/4d5f7/M-959ndrAXI.jpg"/>
+    <hyperlink ref="K52" r:id="rId184" display="№5" address="https://sun9-47.userapi.com/c636423/v636423028/4d600/FmbOFhW1njo.jpg" tooltip="https://sun9-47.userapi.com/c636423/v636423028/4d600/FmbOFhW1njo.jpg"/>
+    <hyperlink ref="L52" r:id="rId185" display="№6" address="https://sun9-17.userapi.com/c636423/v636423028/4d609/qL_qDIc0b1g.jpg" tooltip="https://sun9-17.userapi.com/c636423/v636423028/4d609/qL_qDIc0b1g.jpg"/>
+    <hyperlink ref="G53" r:id="rId186" display="№1" address="https://sun9-70.userapi.com/c636423/v636423028/4d488/RnmBLENELRc.jpg" tooltip="https://sun9-70.userapi.com/c636423/v636423028/4d488/RnmBLENELRc.jpg"/>
+    <hyperlink ref="H53" r:id="rId187" display="№2" address="https://sun9-11.userapi.com/c636423/v636423028/4d48f/mVCdkiYx3E0.jpg" tooltip="https://sun9-11.userapi.com/c636423/v636423028/4d48f/mVCdkiYx3E0.jpg"/>
+    <hyperlink ref="I53" r:id="rId188" display="№3" address="https://sun9-55.userapi.com/c636423/v636423028/4d496/bqpT8rPScSg.jpg" tooltip="https://sun9-55.userapi.com/c636423/v636423028/4d496/bqpT8rPScSg.jpg"/>
+    <hyperlink ref="J53" r:id="rId189" display="№4" address="https://sun9-23.userapi.com/c636423/v636423028/4d49d/9Rpy3pXlyHY.jpg" tooltip="https://sun9-23.userapi.com/c636423/v636423028/4d49d/9Rpy3pXlyHY.jpg"/>
+    <hyperlink ref="K53" r:id="rId190" display="№5" address="https://sun9-12.userapi.com/c636423/v636423028/4d4a4/HJNL51PmZZI.jpg" tooltip="https://sun9-12.userapi.com/c636423/v636423028/4d4a4/HJNL51PmZZI.jpg"/>
+    <hyperlink ref="L53" r:id="rId191" display="№6" address="https://sun9-28.userapi.com/c636423/v636423028/4d4ab/ChevjaeomOw.jpg" tooltip="https://sun9-28.userapi.com/c636423/v636423028/4d4ab/ChevjaeomOw.jpg"/>
+    <hyperlink ref="G55" r:id="rId192" display="№1" address="https://sun9-16.userapi.com/c636423/v636423028/4d43b/tdRdTdZkeiM.jpg" tooltip="https://sun9-16.userapi.com/c636423/v636423028/4d43b/tdRdTdZkeiM.jpg"/>
+    <hyperlink ref="H55" r:id="rId193" display="№2" address="https://sun9-31.userapi.com/c636423/v636423028/4d442/0MtRM33LG_c.jpg" tooltip="https://sun9-31.userapi.com/c636423/v636423028/4d442/0MtRM33LG_c.jpg"/>
+    <hyperlink ref="I55" r:id="rId194" display="№3" address="https://sun9-17.userapi.com/c636423/v636423028/4d449/zl1hV_WKZyY.jpg" tooltip="https://sun9-17.userapi.com/c636423/v636423028/4d449/zl1hV_WKZyY.jpg"/>
+    <hyperlink ref="J55" r:id="rId195" display="№4" address="https://sun9-32.userapi.com/c636423/v636423028/4d450/8zh2--od4s0.jpg" tooltip="https://sun9-32.userapi.com/c636423/v636423028/4d450/8zh2--od4s0.jpg"/>
+    <hyperlink ref="K55" r:id="rId196" display="№5" address="https://sun9-65.userapi.com/c636423/v636423028/4d457/b3arOHbgQt0.jpg" tooltip="https://sun9-65.userapi.com/c636423/v636423028/4d457/b3arOHbgQt0.jpg"/>
+    <hyperlink ref="G56" r:id="rId197" display="№1" address="https://sun9-16.userapi.com/c636423/v636423028/4d411/y-RHO5y9qCE.jpg" tooltip="https://sun9-16.userapi.com/c636423/v636423028/4d411/y-RHO5y9qCE.jpg"/>
+    <hyperlink ref="H56" r:id="rId198" display="№2" address="https://sun9-13.userapi.com/c636423/v636423028/4d418/ym7A0dWtvQI.jpg" tooltip="https://sun9-13.userapi.com/c636423/v636423028/4d418/ym7A0dWtvQI.jpg"/>
+    <hyperlink ref="I56" r:id="rId199" display="№3" address="https://sun9-52.userapi.com/c636423/v636423028/4d41f/4o-aXl6Q9_k.jpg" tooltip="https://sun9-52.userapi.com/c636423/v636423028/4d41f/4o-aXl6Q9_k.jpg"/>
+    <hyperlink ref="J56" r:id="rId200" display="№4" address="https://sun9-57.userapi.com/c636423/v636423028/4d426/bgk6hAVWaos.jpg" tooltip="https://sun9-57.userapi.com/c636423/v636423028/4d426/bgk6hAVWaos.jpg"/>
+    <hyperlink ref="K56" r:id="rId201" display="№5" address="https://sun9-3.userapi.com/c636423/v636423028/4d42d/7RGMh9MJ13E.jpg" tooltip="https://sun9-3.userapi.com/c636423/v636423028/4d42d/7RGMh9MJ13E.jpg"/>
+    <hyperlink ref="L56" r:id="rId202" display="№6" address="https://sun9-45.userapi.com/c636423/v636423028/4d434/Hj1wtc7IpNs.jpg" tooltip="https://sun9-45.userapi.com/c636423/v636423028/4d434/Hj1wtc7IpNs.jpg"/>
+    <hyperlink ref="G57" r:id="rId203" display="№1" address="https://sun9-11.userapi.com/c636423/v636423028/4d3e2/dPEvee9QnJs.jpg" tooltip="https://sun9-11.userapi.com/c636423/v636423028/4d3e2/dPEvee9QnJs.jpg"/>
+    <hyperlink ref="H57" r:id="rId204" display="№2" address="https://sun9-4.userapi.com/c636423/v636423028/4d3ea/BrG3AEWjtnM.jpg" tooltip="https://sun9-4.userapi.com/c636423/v636423028/4d3ea/BrG3AEWjtnM.jpg"/>
+    <hyperlink ref="I57" r:id="rId205" display="№3" address="https://sun9-34.userapi.com/c636423/v636423028/4d3f2/WUY8P3X52vU.jpg" tooltip="https://sun9-34.userapi.com/c636423/v636423028/4d3f2/WUY8P3X52vU.jpg"/>
+    <hyperlink ref="J57" r:id="rId206" display="№4" address="https://sun9-30.userapi.com/c636423/v636423028/4d3fa/EOmDs950qVI.jpg" tooltip="https://sun9-30.userapi.com/c636423/v636423028/4d3fa/EOmDs950qVI.jpg"/>
+    <hyperlink ref="K57" r:id="rId207" display="№5" address="https://sun9-27.userapi.com/c636423/v636423028/4d402/Ql9HImHouIk.jpg" tooltip="https://sun9-27.userapi.com/c636423/v636423028/4d402/Ql9HImHouIk.jpg"/>
+    <hyperlink ref="L57" r:id="rId208" display="№6" address="https://sun9-13.userapi.com/c636423/v636423028/4d40a/Tms41KuEBuA.jpg" tooltip="https://sun9-13.userapi.com/c636423/v636423028/4d40a/Tms41KuEBuA.jpg"/>
+    <hyperlink ref="G58" r:id="rId209" display="№1" address="https://sun9-43.userapi.com/c636423/v636423028/4d3b5/wrSccV3LXDM.jpg" tooltip="https://sun9-43.userapi.com/c636423/v636423028/4d3b5/wrSccV3LXDM.jpg"/>
+    <hyperlink ref="H58" r:id="rId210" display="№2" address="https://sun9-2.userapi.com/c636423/v636423028/4d3bc/3GVj_YEGc5M.jpg" tooltip="https://sun9-2.userapi.com/c636423/v636423028/4d3bc/3GVj_YEGc5M.jpg"/>
+    <hyperlink ref="I58" r:id="rId211" display="№3" address="https://sun9-29.userapi.com/c636423/v636423028/4d3c3/kBzmG-Ybr4g.jpg" tooltip="https://sun9-29.userapi.com/c636423/v636423028/4d3c3/kBzmG-Ybr4g.jpg"/>
+    <hyperlink ref="J58" r:id="rId212" display="№4" address="https://sun9-5.userapi.com/c636423/v636423028/4d3cb/EI372m4t6Ik.jpg" tooltip="https://sun9-5.userapi.com/c636423/v636423028/4d3cb/EI372m4t6Ik.jpg"/>
+    <hyperlink ref="K58" r:id="rId213" display="№5" address="https://sun9-49.userapi.com/c636423/v636423028/4d3d2/WbtOYF5PTbg.jpg" tooltip="https://sun9-49.userapi.com/c636423/v636423028/4d3d2/WbtOYF5PTbg.jpg"/>
+    <hyperlink ref="L58" r:id="rId214" display="№6" address="https://sun9-4.userapi.com/c636423/v636423028/4d3da/C7H5emBPPpA.jpg" tooltip="https://sun9-4.userapi.com/c636423/v636423028/4d3da/C7H5emBPPpA.jpg"/>
+    <hyperlink ref="G59" r:id="rId215" display="№1" address="https://sun9-35.userapi.com/c636423/v636423028/4d366/2U0DRUl8uoU.jpg" tooltip="https://sun9-35.userapi.com/c636423/v636423028/4d366/2U0DRUl8uoU.jpg"/>
+    <hyperlink ref="H59" r:id="rId216" display="№2" address="https://sun9-51.userapi.com/c636423/v636423028/4d36e/onUJnO8Y3ik.jpg" tooltip="https://sun9-51.userapi.com/c636423/v636423028/4d36e/onUJnO8Y3ik.jpg"/>
+    <hyperlink ref="I59" r:id="rId217" display="№3" address="https://sun9-72.userapi.com/c636423/v636423028/4d376/UQnTA0gGus4.jpg" tooltip="https://sun9-72.userapi.com/c636423/v636423028/4d376/UQnTA0gGus4.jpg"/>
+    <hyperlink ref="J59" r:id="rId218" display="№4" address="https://sun9-31.userapi.com/c636423/v636423028/4d37e/6QOpDWx1EdY.jpg" tooltip="https://sun9-31.userapi.com/c636423/v636423028/4d37e/6QOpDWx1EdY.jpg"/>
+    <hyperlink ref="K59" r:id="rId219" display="№5" address="https://sun9-42.userapi.com/c636423/v636423028/4d386/30gBmUo-W_g.jpg" tooltip="https://sun9-42.userapi.com/c636423/v636423028/4d386/30gBmUo-W_g.jpg"/>
+    <hyperlink ref="L59" r:id="rId220" display="№6" address="https://sun9-35.userapi.com/c636423/v636423028/4d38e/di5IX6cVezg.jpg" tooltip="https://sun9-35.userapi.com/c636423/v636423028/4d38e/di5IX6cVezg.jpg"/>
+    <hyperlink ref="M59" r:id="rId221" display="№7" address="https://sun9-63.userapi.com/c636423/v636423028/4d396/eL-zWnYb-G4.jpg" tooltip="https://sun9-63.userapi.com/c636423/v636423028/4d396/eL-zWnYb-G4.jpg"/>
+    <hyperlink ref="N59" r:id="rId222" display="№8" address="https://sun9-32.userapi.com/c636423/v636423028/4d39e/64NcBa5vFSU.jpg" tooltip="https://sun9-32.userapi.com/c636423/v636423028/4d39e/64NcBa5vFSU.jpg"/>
+    <hyperlink ref="O59" r:id="rId223" display="№9" address="https://sun9-47.userapi.com/c636423/v636423028/4d3a6/8pERoy2HaJU.jpg" tooltip="https://sun9-47.userapi.com/c636423/v636423028/4d3a6/8pERoy2HaJU.jpg"/>
+    <hyperlink ref="P59" r:id="rId224" display="№10" address="https://sun9-44.userapi.com/c636423/v636423028/4d3ae/VN1YmftV4wU.jpg" tooltip="https://sun9-44.userapi.com/c636423/v636423028/4d3ae/VN1YmftV4wU.jpg"/>
+    <hyperlink ref="G60" r:id="rId225" display="№1" address="https://sun9-68.userapi.com/c636423/v636423028/4d34e/65zFnd1iWwM.jpg" tooltip="https://sun9-68.userapi.com/c636423/v636423028/4d34e/65zFnd1iWwM.jpg"/>
+    <hyperlink ref="H60" r:id="rId226" display="№2" address="https://sun9-34.userapi.com/c636423/v636423028/4d356/XD2TObj1_Ss.jpg" tooltip="https://sun9-34.userapi.com/c636423/v636423028/4d356/XD2TObj1_Ss.jpg"/>
+    <hyperlink ref="I60" r:id="rId227" display="№3" address="https://sun9-66.userapi.com/c636423/v636423028/4d35e/t2nGn4Z2T7M.jpg" tooltip="https://sun9-66.userapi.com/c636423/v636423028/4d35e/t2nGn4Z2T7M.jpg"/>
+    <hyperlink ref="G61" r:id="rId228" display="№1" address="https://sun9-15.userapi.com/c636423/v636423028/4ce82/pF623aXn1Hc.jpg" tooltip="https://sun9-15.userapi.com/c636423/v636423028/4ce82/pF623aXn1Hc.jpg"/>
+    <hyperlink ref="H61" r:id="rId229" display="№2" address="https://sun9-16.userapi.com/c636423/v636423028/4ce8a/KP6OcMVzinA.jpg" tooltip="https://sun9-16.userapi.com/c636423/v636423028/4ce8a/KP6OcMVzinA.jpg"/>
+    <hyperlink ref="I61" r:id="rId230" display="№3" address="https://sun9-32.userapi.com/c636423/v636423028/4ce92/t0QPYvDLXdo.jpg" tooltip="https://sun9-32.userapi.com/c636423/v636423028/4ce92/t0QPYvDLXdo.jpg"/>
+    <hyperlink ref="J61" r:id="rId231" display="№4" address="https://sun9-24.userapi.com/c636423/v636423028/4ce9a/lyNCsmPeSYg.jpg" tooltip="https://sun9-24.userapi.com/c636423/v636423028/4ce9a/lyNCsmPeSYg.jpg"/>
+    <hyperlink ref="K61" r:id="rId232" display="№5" address="https://sun9-39.userapi.com/c636423/v636423028/4cea2/liwbCzj-CLk.jpg" tooltip="https://sun9-39.userapi.com/c636423/v636423028/4cea2/liwbCzj-CLk.jpg"/>
+    <hyperlink ref="L61" r:id="rId233" display="№6" address="https://sun9-18.userapi.com/c636423/v636423028/4ceaa/EYZd9oPkqXs.jpg" tooltip="https://sun9-18.userapi.com/c636423/v636423028/4ceaa/EYZd9oPkqXs.jpg"/>
+    <hyperlink ref="M61" r:id="rId234" display="№7" address="https://sun9-26.userapi.com/c636423/v636423028/4ceb2/swnJqjtC8HE.jpg" tooltip="https://sun9-26.userapi.com/c636423/v636423028/4ceb2/swnJqjtC8HE.jpg"/>
+    <hyperlink ref="G62" r:id="rId235" display="№1" address="https://sun9-24.userapi.com/c636423/v636423028/4ce44/3sMWwQbW2fo.jpg" tooltip="https://sun9-24.userapi.com/c636423/v636423028/4ce44/3sMWwQbW2fo.jpg"/>
+    <hyperlink ref="H62" r:id="rId236" display="№2" address="https://sun9-66.userapi.com/c636423/v636423028/4ce4d/dqMZTsoBXIM.jpg" tooltip="https://sun9-66.userapi.com/c636423/v636423028/4ce4d/dqMZTsoBXIM.jpg"/>
+    <hyperlink ref="I62" r:id="rId237" display="№3" address="https://sun9-70.userapi.com/c636423/v636423028/4ce56/eNPyFgGID6I.jpg" tooltip="https://sun9-70.userapi.com/c636423/v636423028/4ce56/eNPyFgGID6I.jpg"/>
+    <hyperlink ref="J62" r:id="rId238" display="№4" address="https://sun9-22.userapi.com/c636423/v636423028/4ce5f/GBqv9PwhOcg.jpg" tooltip="https://sun9-22.userapi.com/c636423/v636423028/4ce5f/GBqv9PwhOcg.jpg"/>
+    <hyperlink ref="K62" r:id="rId239" display="№5" address="https://sun9-76.userapi.com/c636423/v636423028/4ce68/X76qpJ6ZsDk.jpg" tooltip="https://sun9-76.userapi.com/c636423/v636423028/4ce68/X76qpJ6ZsDk.jpg"/>
+    <hyperlink ref="L62" r:id="rId240" display="№6" address="https://sun9-30.userapi.com/c636423/v636423028/4ce71/poAq7O9LgXM.jpg" tooltip="https://sun9-30.userapi.com/c636423/v636423028/4ce71/poAq7O9LgXM.jpg"/>
+    <hyperlink ref="M62" r:id="rId241" display="№7" address="https://sun9-22.userapi.com/c636423/v636423028/4ce7a/jFL-mEyHd_E.jpg" tooltip="https://sun9-22.userapi.com/c636423/v636423028/4ce7a/jFL-mEyHd_E.jpg"/>
+    <hyperlink ref="G63" r:id="rId242" display="№1" address="https://sun9-15.userapi.com/c636423/v636423028/4cd9c/Frhrd0i1h9U.jpg" tooltip="https://sun9-15.userapi.com/c636423/v636423028/4cd9c/Frhrd0i1h9U.jpg"/>
+    <hyperlink ref="H63" r:id="rId243" display="№2" address="https://sun9-51.userapi.com/c636423/v636423028/4cda3/uZYmfLtEp1U.jpg" tooltip="https://sun9-51.userapi.com/c636423/v636423028/4cda3/uZYmfLtEp1U.jpg"/>
+    <hyperlink ref="I63" r:id="rId244" display="№3" address="https://sun9-32.userapi.com/c636423/v636423028/4cdaa/5IPvAkWvsdg.jpg" tooltip="https://sun9-32.userapi.com/c636423/v636423028/4cdaa/5IPvAkWvsdg.jpg"/>
+    <hyperlink ref="J63" r:id="rId245" display="№4" address="https://sun9-75.userapi.com/c636423/v636423028/4cdb1/uv8KmViBvhI.jpg" tooltip="https://sun9-75.userapi.com/c636423/v636423028/4cdb1/uv8KmViBvhI.jpg"/>
+    <hyperlink ref="K63" r:id="rId246" display="№5" address="https://sun9-75.userapi.com/c636423/v636423028/4cdb8/J0MiY1inuoQ.jpg" tooltip="https://sun9-75.userapi.com/c636423/v636423028/4cdb8/J0MiY1inuoQ.jpg"/>
+    <hyperlink ref="G64" r:id="rId247" display="№1" address="https://sun9-57.userapi.com/c636423/v636423028/4cd85/PHHgAft6CEs.jpg" tooltip="https://sun9-57.userapi.com/c636423/v636423028/4cd85/PHHgAft6CEs.jpg"/>
+    <hyperlink ref="H64" r:id="rId248" display="№2" address="https://sun9-6.userapi.com/c636423/v636423028/4cd8d/IP1ySdDFvA8.jpg" tooltip="https://sun9-6.userapi.com/c636423/v636423028/4cd8d/IP1ySdDFvA8.jpg"/>
+    <hyperlink ref="I64" r:id="rId249" display="№3" address="https://sun9-25.userapi.com/c636423/v636423028/4cd95/_xJyL9b0_eE.jpg" tooltip="https://sun9-25.userapi.com/c636423/v636423028/4cd95/_xJyL9b0_eE.jpg"/>
+    <hyperlink ref="G65" r:id="rId250" display="№1" address="https://sun9-27.userapi.com/c636423/v636423028/4ccda/PZbCQySm8bI.jpg" tooltip="https://sun9-27.userapi.com/c636423/v636423028/4ccda/PZbCQySm8bI.jpg"/>
+    <hyperlink ref="H65" r:id="rId251" display="№2" address="https://sun9-23.userapi.com/c636423/v636423028/4cce3/Kzn0EpYGw_w.jpg" tooltip="https://sun9-23.userapi.com/c636423/v636423028/4cce3/Kzn0EpYGw_w.jpg"/>
+    <hyperlink ref="I65" r:id="rId252" display="№3" address="https://sun9-33.userapi.com/c636423/v636423028/4ccec/_grjrnSVwUk.jpg" tooltip="https://sun9-33.userapi.com/c636423/v636423028/4ccec/_grjrnSVwUk.jpg"/>
+    <hyperlink ref="J65" r:id="rId253" display="№4" address="https://sun9-74.userapi.com/c636423/v636423028/4ccf5/pr5SZrpEE5w.jpg" tooltip="https://sun9-74.userapi.com/c636423/v636423028/4ccf5/pr5SZrpEE5w.jpg"/>
+    <hyperlink ref="K65" r:id="rId254" display="№5" address="https://sun9-58.userapi.com/c636423/v636423028/4ccfe/yPi-DKytfXM.jpg" tooltip="https://sun9-58.userapi.com/c636423/v636423028/4ccfe/yPi-DKytfXM.jpg"/>
+    <hyperlink ref="L65" r:id="rId255" display="№6" address="https://sun9-63.userapi.com/c636423/v636423028/4cd07/i9xo7Q6lnTc.jpg" tooltip="https://sun9-63.userapi.com/c636423/v636423028/4cd07/i9xo7Q6lnTc.jpg"/>
+    <hyperlink ref="M65" r:id="rId256" display="№7" address="https://sun9-33.userapi.com/c636423/v636423028/4cd10/Xbu6DHl1L7g.jpg" tooltip="https://sun9-33.userapi.com/c636423/v636423028/4cd10/Xbu6DHl1L7g.jpg"/>
+    <hyperlink ref="N65" r:id="rId257" display="№8" address="https://sun9-18.userapi.com/c636423/v636423028/4cd19/kiwuJpQJep0.jpg" tooltip="https://sun9-18.userapi.com/c636423/v636423028/4cd19/kiwuJpQJep0.jpg"/>
+    <hyperlink ref="O65" r:id="rId258" display="№9" address="https://sun9-46.userapi.com/c636423/v636423028/4cd22/cWHukwzuYX0.jpg" tooltip="https://sun9-46.userapi.com/c636423/v636423028/4cd22/cWHukwzuYX0.jpg"/>
+    <hyperlink ref="P65" r:id="rId259" display="№10" address="https://sun9-33.userapi.com/c636423/v636423028/4cd2b/bV9JOrdrQUo.jpg" tooltip="https://sun9-33.userapi.com/c636423/v636423028/4cd2b/bV9JOrdrQUo.jpg"/>
+    <hyperlink ref="G67" r:id="rId260" display="№1" address="https://sun9-44.userapi.com/c636423/v636423028/4ccbd/Gdwo-Aavihg.jpg" tooltip="https://sun9-44.userapi.com/c636423/v636423028/4ccbd/Gdwo-Aavihg.jpg"/>
+    <hyperlink ref="H67" r:id="rId261" display="№2" address="https://sun9-40.userapi.com/c636423/v636423028/4ccc7/HTXB2yQvaDo.jpg" tooltip="https://sun9-40.userapi.com/c636423/v636423028/4ccc7/HTXB2yQvaDo.jpg"/>
+    <hyperlink ref="I67" r:id="rId262" display="№3" address="https://sun9-62.userapi.com/c636423/v636423028/4ccd1/9OUTCKsLTN4.jpg" tooltip="https://sun9-62.userapi.com/c636423/v636423028/4ccd1/9OUTCKsLTN4.jpg"/>
+    <hyperlink ref="G68" r:id="rId263" display="№1" address="https://sun9-31.userapi.com/c636423/v636423028/4cc5a/Yaj46w8HxTA.jpg" tooltip="https://sun9-31.userapi.com/c636423/v636423028/4cc5a/Yaj46w8HxTA.jpg"/>
+    <hyperlink ref="H68" r:id="rId264" display="№2" address="https://sun9-26.userapi.com/c636423/v636423028/4cc64/ARmHF-Pq8No.jpg" tooltip="https://sun9-26.userapi.com/c636423/v636423028/4cc64/ARmHF-Pq8No.jpg"/>
+    <hyperlink ref="I68" r:id="rId265" display="№3" address="https://sun9-35.userapi.com/c636423/v636423028/4cc6e/pGINAiSU9o0.jpg" tooltip="https://sun9-35.userapi.com/c636423/v636423028/4cc6e/pGINAiSU9o0.jpg"/>
+    <hyperlink ref="J68" r:id="rId266" display="№4" address="https://sun9-45.userapi.com/c636423/v636423028/4cc77/7HPXOusy7eg.jpg" tooltip="https://sun9-45.userapi.com/c636423/v636423028/4cc77/7HPXOusy7eg.jpg"/>
+    <hyperlink ref="K68" r:id="rId267" display="№5" address="https://sun9-38.userapi.com/c636423/v636423028/4cc81/xlSFqjhT16M.jpg" tooltip="https://sun9-38.userapi.com/c636423/v636423028/4cc81/xlSFqjhT16M.jpg"/>
+    <hyperlink ref="L68" r:id="rId268" display="№6" address="https://sun9-40.userapi.com/c636423/v636423028/4cc8b/m2aUHRnO4Rw.jpg" tooltip="https://sun9-40.userapi.com/c636423/v636423028/4cc8b/m2aUHRnO4Rw.jpg"/>
+    <hyperlink ref="M68" r:id="rId269" display="№7" address="https://sun9-55.userapi.com/c636423/v636423028/4cc95/DBcCZBdwZuY.jpg" tooltip="https://sun9-55.userapi.com/c636423/v636423028/4cc95/DBcCZBdwZuY.jpg"/>
+    <hyperlink ref="N68" r:id="rId270" display="№8" address="https://sun9-12.userapi.com/c636423/v636423028/4cc9f/QINIz9qeJA0.jpg" tooltip="https://sun9-12.userapi.com/c636423/v636423028/4cc9f/QINIz9qeJA0.jpg"/>
+    <hyperlink ref="O68" r:id="rId271" display="№9" address="https://sun9-40.userapi.com/c636423/v636423028/4cca9/Riu-fc3YMRk.jpg" tooltip="https://sun9-40.userapi.com/c636423/v636423028/4cca9/Riu-fc3YMRk.jpg"/>
+    <hyperlink ref="P68" r:id="rId272" display="№10" address="https://sun9-36.userapi.com/c636423/v636423028/4ccb3/Cw5dbXkUukg.jpg" tooltip="https://sun9-36.userapi.com/c636423/v636423028/4ccb3/Cw5dbXkUukg.jpg"/>
+    <hyperlink ref="G69" r:id="rId273" display="№1" address="https://sun9-24.userapi.com/c636423/v636423028/4cc30/t7In4WolWRY.jpg" tooltip="https://sun9-24.userapi.com/c636423/v636423028/4cc30/t7In4WolWRY.jpg"/>
+    <hyperlink ref="H69" r:id="rId274" display="№2" address="https://sun9-46.userapi.com/c636423/v636423028/4cc38/7qkB_jFc_fA.jpg" tooltip="https://sun9-46.userapi.com/c636423/v636423028/4cc38/7qkB_jFc_fA.jpg"/>
+    <hyperlink ref="I69" r:id="rId275" display="№3" address="https://sun9-30.userapi.com/c636423/v636423028/4cc40/_pVyTDDkip0.jpg" tooltip="https://sun9-30.userapi.com/c636423/v636423028/4cc40/_pVyTDDkip0.jpg"/>
+    <hyperlink ref="J69" r:id="rId276" display="№4" address="https://sun9-45.userapi.com/c636423/v636423028/4cc48/gt5RfpU36S0.jpg" tooltip="https://sun9-45.userapi.com/c636423/v636423028/4cc48/gt5RfpU36S0.jpg"/>
+    <hyperlink ref="K69" r:id="rId277" display="№5" address="https://sun9-56.userapi.com/c636423/v636423028/4cc50/3kpktGpNR_s.jpg" tooltip="https://sun9-56.userapi.com/c636423/v636423028/4cc50/3kpktGpNR_s.jpg"/>
+    <hyperlink ref="G70" r:id="rId278" display="№1" address="https://sun9-60.userapi.com/c636423/v636423028/4cbf4/xKVQjR2SxIs.jpg" tooltip="https://sun9-60.userapi.com/c636423/v636423028/4cbf4/xKVQjR2SxIs.jpg"/>
+    <hyperlink ref="H70" r:id="rId279" display="№2" address="https://sun9-52.userapi.com/c636423/v636423028/4cbfb/rhTDT4gJ3kw.jpg" tooltip="https://sun9-52.userapi.com/c636423/v636423028/4cbfb/rhTDT4gJ3kw.jpg"/>
+    <hyperlink ref="I70" r:id="rId280" display="№3" address="https://sun9-69.userapi.com/c636423/v636423028/4cc02/__X6OCJAeqY.jpg" tooltip="https://sun9-69.userapi.com/c636423/v636423028/4cc02/__X6OCJAeqY.jpg"/>
+    <hyperlink ref="G72" r:id="rId281" display="№1" address="https://sun9-41.userapi.com/c636423/v636423028/4cbad/BB3ZO5DzLcU.jpg" tooltip="https://sun9-41.userapi.com/c636423/v636423028/4cbad/BB3ZO5DzLcU.jpg"/>
+    <hyperlink ref="H72" r:id="rId282" display="№2" address="https://sun9-42.userapi.com/c636423/v636423028/4cbb6/Xji7ZGD31Lo.jpg" tooltip="https://sun9-42.userapi.com/c636423/v636423028/4cbb6/Xji7ZGD31Lo.jpg"/>
+    <hyperlink ref="I72" r:id="rId283" display="№3" address="https://sun9-76.userapi.com/c636423/v636423028/4cbbf/V2m7nJMx--0.jpg" tooltip="https://sun9-76.userapi.com/c636423/v636423028/4cbbf/V2m7nJMx--0.jpg"/>
+    <hyperlink ref="J72" r:id="rId284" display="№4" address="https://sun9-29.userapi.com/c636423/v636423028/4cbc8/qY87ZPnclng.jpg" tooltip="https://sun9-29.userapi.com/c636423/v636423028/4cbc8/qY87ZPnclng.jpg"/>
+    <hyperlink ref="K72" r:id="rId285" display="№5" address="https://sun9-62.userapi.com/c636423/v636423028/4cbd1/wgmWjKiMsBE.jpg" tooltip="https://sun9-62.userapi.com/c636423/v636423028/4cbd1/wgmWjKiMsBE.jpg"/>
+    <hyperlink ref="L72" r:id="rId286" display="№6" address="https://sun9-4.userapi.com/c636423/v636423028/4cbda/XtSiyPvIVkM.jpg" tooltip="https://sun9-4.userapi.com/c636423/v636423028/4cbda/XtSiyPvIVkM.jpg"/>
+    <hyperlink ref="G77" r:id="rId287" display="№1" address="https://sun9-13.userapi.com/c638125/v638125707/22e7c/gdn-Lo8k_XE.jpg" tooltip="https://sun9-13.userapi.com/c638125/v638125707/22e7c/gdn-Lo8k_XE.jpg"/>
+    <hyperlink ref="H77" r:id="rId288" display="№2" address="https://sun9-62.userapi.com/c638125/v638125707/22e84/pdTQi6A3Wtg.jpg" tooltip="https://sun9-62.userapi.com/c638125/v638125707/22e84/pdTQi6A3Wtg.jpg"/>
+    <hyperlink ref="I77" r:id="rId289" display="№3" address="https://sun9-45.userapi.com/c638125/v638125707/22e8c/uzOeTyuUrGU.jpg" tooltip="https://sun9-45.userapi.com/c638125/v638125707/22e8c/uzOeTyuUrGU.jpg"/>
+    <hyperlink ref="J77" r:id="rId290" display="№4" address="https://sun9-19.userapi.com/c638125/v638125707/22e94/wdBOqXvfXs4.jpg" tooltip="https://sun9-19.userapi.com/c638125/v638125707/22e94/wdBOqXvfXs4.jpg"/>
+    <hyperlink ref="G78" r:id="rId291" display="№1" address="https://sun9-32.userapi.com/c636423/v636423028/4ca99/reM6bmzanIM.jpg" tooltip="https://sun9-32.userapi.com/c636423/v636423028/4ca99/reM6bmzanIM.jpg"/>
+    <hyperlink ref="H78" r:id="rId292" display="№2" address="https://sun9-51.userapi.com/c636423/v636423028/4caa2/aowlnaDoscc.jpg" tooltip="https://sun9-51.userapi.com/c636423/v636423028/4caa2/aowlnaDoscc.jpg"/>
+    <hyperlink ref="I78" r:id="rId293" display="№3" address="https://sun9-52.userapi.com/c636423/v636423028/4caab/XR3qqOwdqxo.jpg" tooltip="https://sun9-52.userapi.com/c636423/v636423028/4caab/XR3qqOwdqxo.jpg"/>
+    <hyperlink ref="J78" r:id="rId294" display="№4" address="https://sun9-3.userapi.com/c636423/v636423028/4cab4/A1mS9OexhpQ.jpg" tooltip="https://sun9-3.userapi.com/c636423/v636423028/4cab4/A1mS9OexhpQ.jpg"/>
+    <hyperlink ref="K78" r:id="rId295" display="№5" address="https://sun9-29.userapi.com/c636423/v636423028/4cabd/9QCrVszRy-o.jpg" tooltip="https://sun9-29.userapi.com/c636423/v636423028/4cabd/9QCrVszRy-o.jpg"/>
+    <hyperlink ref="L78" r:id="rId296" display="№6" address="https://sun9-22.userapi.com/c636423/v636423028/4cac6/7MQrKxgIRBU.jpg" tooltip="https://sun9-22.userapi.com/c636423/v636423028/4cac6/7MQrKxgIRBU.jpg"/>
+    <hyperlink ref="M78" r:id="rId297" display="№7" address="https://sun9-56.userapi.com/c636423/v636423028/4cacf/EpRjK5clSXM.jpg" tooltip="https://sun9-56.userapi.com/c636423/v636423028/4cacf/EpRjK5clSXM.jpg"/>
+    <hyperlink ref="N78" r:id="rId298" display="№8" address="https://sun9-51.userapi.com/c636423/v636423028/4cad8/0thDPRPxwjU.jpg" tooltip="https://sun9-51.userapi.com/c636423/v636423028/4cad8/0thDPRPxwjU.jpg"/>
+    <hyperlink ref="O78" r:id="rId299" display="№9" address="https://sun9-54.userapi.com/c636423/v636423028/4cae1/3TDOTi_nQCY.jpg" tooltip="https://sun9-54.userapi.com/c636423/v636423028/4cae1/3TDOTi_nQCY.jpg"/>
+    <hyperlink ref="P78" r:id="rId300" display="№10" address="https://sun9-10.userapi.com/c636423/v636423028/4caea/uZR6ovWspHc.jpg" tooltip="https://sun9-10.userapi.com/c636423/v636423028/4caea/uZR6ovWspHc.jpg"/>
+    <hyperlink ref="G79" r:id="rId301" display="№1" address="https://sun9-21.userapi.com/c636423/v636423028/4ca6a/UJaMlKdqF6s.jpg" tooltip="https://sun9-21.userapi.com/c636423/v636423028/4ca6a/UJaMlKdqF6s.jpg"/>
+    <hyperlink ref="H79" r:id="rId302" display="№2" address="https://sun9-21.userapi.com/c636423/v636423028/4ca71/JiWFQ7NIo2A.jpg" tooltip="https://sun9-21.userapi.com/c636423/v636423028/4ca71/JiWFQ7NIo2A.jpg"/>
+    <hyperlink ref="I79" r:id="rId303" display="№3" address="https://sun9-16.userapi.com/c636423/v636423028/4ca79/d106UNmZpAA.jpg" tooltip="https://sun9-16.userapi.com/c636423/v636423028/4ca79/d106UNmZpAA.jpg"/>
+    <hyperlink ref="J79" r:id="rId304" display="№4" address="https://sun9-40.userapi.com/c636423/v636423028/4ca81/yVBA8asoK6Q.jpg" tooltip="https://sun9-40.userapi.com/c636423/v636423028/4ca81/yVBA8asoK6Q.jpg"/>
+    <hyperlink ref="K79" r:id="rId305" display="№5" address="https://sun9-7.userapi.com/c636423/v636423028/4ca89/nGVVvjxxPU4.jpg" tooltip="https://sun9-7.userapi.com/c636423/v636423028/4ca89/nGVVvjxxPU4.jpg"/>
+    <hyperlink ref="L79" r:id="rId306" display="№6" address="https://sun9-39.userapi.com/c636423/v636423028/4ca90/B62MfH_iPWY.jpg" tooltip="https://sun9-39.userapi.com/c636423/v636423028/4ca90/B62MfH_iPWY.jpg"/>
+    <hyperlink ref="G81" r:id="rId307" display="№1" address="https://sun9-37.userapi.com/c636423/v636423028/4ca30/3WkIW3zbhOU.jpg" tooltip="https://sun9-37.userapi.com/c636423/v636423028/4ca30/3WkIW3zbhOU.jpg"/>
+    <hyperlink ref="H81" r:id="rId308" display="№2" address="https://sun9-67.userapi.com/c636423/v636423028/4ca37/cXMxbEZUmvo.jpg" tooltip="https://sun9-67.userapi.com/c636423/v636423028/4ca37/cXMxbEZUmvo.jpg"/>
+    <hyperlink ref="I81" r:id="rId309" display="№3" address="https://sun9-59.userapi.com/c636423/v636423028/4ca3e/iT3qNy-LWDo.jpg" tooltip="https://sun9-59.userapi.com/c636423/v636423028/4ca3e/iT3qNy-LWDo.jpg"/>
+    <hyperlink ref="J81" r:id="rId310" display="№4" address="https://sun9-58.userapi.com/c636423/v636423028/4ca45/jrgnjYOHNR0.jpg" tooltip="https://sun9-58.userapi.com/c636423/v636423028/4ca45/jrgnjYOHNR0.jpg"/>
+    <hyperlink ref="K81" r:id="rId311" display="№5" address="https://sun9-57.userapi.com/c636423/v636423028/4ca4c/yKdaLMSug3I.jpg" tooltip="https://sun9-57.userapi.com/c636423/v636423028/4ca4c/yKdaLMSug3I.jpg"/>
+    <hyperlink ref="L81" r:id="rId312" display="№6" address="https://sun9-54.userapi.com/c636423/v636423028/4ca53/0xyWLHm5jXo.jpg" tooltip="https://sun9-54.userapi.com/c636423/v636423028/4ca53/0xyWLHm5jXo.jpg"/>
+    <hyperlink ref="M81" r:id="rId313" display="№7" address="https://sun9-71.userapi.com/c636423/v636423028/4ca5a/nKZArVYtHPA.jpg" tooltip="https://sun9-71.userapi.com/c636423/v636423028/4ca5a/nKZArVYtHPA.jpg"/>
+    <hyperlink ref="N81" r:id="rId314" display="№8" address="https://sun9-52.userapi.com/c636423/v636423028/4ca62/UdioRr_6xd0.jpg" tooltip="https://sun9-52.userapi.com/c636423/v636423028/4ca62/UdioRr_6xd0.jpg"/>
+    <hyperlink ref="G83" r:id="rId315" display="№1" address="https://sun9-47.userapi.com/c636423/v636423028/4c9fb/WeLSdvL_DSg.jpg" tooltip="https://sun9-47.userapi.com/c636423/v636423028/4c9fb/WeLSdvL_DSg.jpg"/>
+    <hyperlink ref="H83" r:id="rId316" display="№2" address="https://sun9-68.userapi.com/c636423/v636423028/4ca02/CVonEmf600Q.jpg" tooltip="https://sun9-68.userapi.com/c636423/v636423028/4ca02/CVonEmf600Q.jpg"/>
+    <hyperlink ref="I83" r:id="rId317" display="№3" address="https://sun9-18.userapi.com/c636423/v636423028/4ca0a/nIBCV-txR5s.jpg" tooltip="https://sun9-18.userapi.com/c636423/v636423028/4ca0a/nIBCV-txR5s.jpg"/>
+    <hyperlink ref="J83" r:id="rId318" display="№4" address="https://sun9-11.userapi.com/c636423/v636423028/4ca11/KbXDgcsLZ3w.jpg" tooltip="https://sun9-11.userapi.com/c636423/v636423028/4ca11/KbXDgcsLZ3w.jpg"/>
+    <hyperlink ref="K83" r:id="rId319" display="№5" address="https://sun9-37.userapi.com/c636423/v636423028/4ca18/9F7By57cDTQ.jpg" tooltip="https://sun9-37.userapi.com/c636423/v636423028/4ca18/9F7By57cDTQ.jpg"/>
+    <hyperlink ref="L83" r:id="rId320" display="№6" address="https://sun9-53.userapi.com/c636423/v636423028/4ca20/-QqNshM3Sjg.jpg" tooltip="https://sun9-53.userapi.com/c636423/v636423028/4ca20/-QqNshM3Sjg.jpg"/>
+    <hyperlink ref="M83" r:id="rId321" display="№7" address="https://sun9-12.userapi.com/c636423/v636423028/4ca28/9I8JA-PME9Y.jpg" tooltip="https://sun9-12.userapi.com/c636423/v636423028/4ca28/9I8JA-PME9Y.jpg"/>
+    <hyperlink ref="G84" r:id="rId322" display="№1" address="https://sun9-56.userapi.com/c636423/v636423028/4c9d9/saOh-Rt5xvQ.jpg" tooltip="https://sun9-56.userapi.com/c636423/v636423028/4c9d9/saOh-Rt5xvQ.jpg"/>
+    <hyperlink ref="H84" r:id="rId323" display="№2" address="https://sun9-48.userapi.com/c636423/v636423028/4c9eb/nzceZFVm-x4.jpg" tooltip="https://sun9-48.userapi.com/c636423/v636423028/4c9eb/nzceZFVm-x4.jpg"/>
+    <hyperlink ref="I84" r:id="rId324" display="№3" address="https://sun9-73.userapi.com/c636423/v636423028/4c9e2/FKZidSVFVdg.jpg" tooltip="https://sun9-73.userapi.com/c636423/v636423028/4c9e2/FKZidSVFVdg.jpg"/>
+    <hyperlink ref="J84" r:id="rId325" display="№4" address="https://sun9-46.userapi.com/c636423/v636423028/4c9f4/YvzDiWL432M.jpg" tooltip="https://sun9-46.userapi.com/c636423/v636423028/4c9f4/YvzDiWL432M.jpg"/>
+    <hyperlink ref="G85" r:id="rId326" display="№1" address="https://sun9-65.userapi.com/c636422/v636422028/4bcb8/oSdLayCY7B0.jpg" tooltip="https://sun9-65.userapi.com/c636422/v636422028/4bcb8/oSdLayCY7B0.jpg"/>
+    <hyperlink ref="H85" r:id="rId327" display="№2" address="https://sun9-62.userapi.com/c636422/v636422028/4bcc0/ca35IOGrCgg.jpg" tooltip="https://sun9-62.userapi.com/c636422/v636422028/4bcc0/ca35IOGrCgg.jpg"/>
+    <hyperlink ref="I85" r:id="rId328" display="№3" address="https://sun9-19.userapi.com/c636422/v636422028/4bcc7/5Fwt7MdjFO4.jpg" tooltip="https://sun9-19.userapi.com/c636422/v636422028/4bcc7/5Fwt7MdjFO4.jpg"/>
+    <hyperlink ref="J85" r:id="rId329" display="№4" address="https://sun9-43.userapi.com/c636422/v636422028/4bcce/7tgPit7U8ok.jpg" tooltip="https://sun9-43.userapi.com/c636422/v636422028/4bcce/7tgPit7U8ok.jpg"/>
+    <hyperlink ref="K85" r:id="rId330" display="№5" address="https://sun9-50.userapi.com/c636422/v636422028/4bcd5/ON1BEhHwINc.jpg" tooltip="https://sun9-50.userapi.com/c636422/v636422028/4bcd5/ON1BEhHwINc.jpg"/>
+    <hyperlink ref="L85" r:id="rId331" display="№6" address="https://sun9-63.userapi.com/c636422/v636422028/4bcdc/MAFXwuvOm5s.jpg" tooltip="https://sun9-63.userapi.com/c636422/v636422028/4bcdc/MAFXwuvOm5s.jpg"/>
+    <hyperlink ref="M85" r:id="rId332" display="№7" address="https://sun9-50.userapi.com/c636422/v636422028/4bce3/BviDrQjo128.jpg" tooltip="https://sun9-50.userapi.com/c636422/v636422028/4bce3/BviDrQjo128.jpg"/>
+    <hyperlink ref="G92" r:id="rId333" display="№1" address="https://sun9-4.userapi.com/c636422/v636422028/4bc32/0SCVLGZEhiw.jpg" tooltip="https://sun9-4.userapi.com/c636422/v636422028/4bc32/0SCVLGZEhiw.jpg"/>
+    <hyperlink ref="H92" r:id="rId334" display="№2" address="https://sun9-48.userapi.com/c636422/v636422028/4bc3a/txPY2w5QAdw.jpg" tooltip="https://sun9-48.userapi.com/c636422/v636422028/4bc3a/txPY2w5QAdw.jpg"/>
+    <hyperlink ref="I92" r:id="rId335" display="№3" address="https://sun9-48.userapi.com/c636422/v636422028/4bc41/k6SlNhJ9YXM.jpg" tooltip="https://sun9-48.userapi.com/c636422/v636422028/4bc41/k6SlNhJ9YXM.jpg"/>
+    <hyperlink ref="J92" r:id="rId336" display="№4" address="https://sun9-26.userapi.com/c636422/v636422028/4bc48/X4Boc76OBcs.jpg" tooltip="https://sun9-26.userapi.com/c636422/v636422028/4bc48/X4Boc76OBcs.jpg"/>
+    <hyperlink ref="K92" r:id="rId337" display="№5" address="https://sun9-3.userapi.com/c636422/v636422028/4bc4f/Fvu27hWNHdA.jpg" tooltip="https://sun9-3.userapi.com/c636422/v636422028/4bc4f/Fvu27hWNHdA.jpg"/>
+    <hyperlink ref="G93" r:id="rId338" display="№1" address="https://sun9-63.userapi.com/c636422/v636422028/4bc06/yHMY3Cv4JfA.jpg" tooltip="https://sun9-63.userapi.com/c636422/v636422028/4bc06/yHMY3Cv4JfA.jpg"/>
+    <hyperlink ref="H93" r:id="rId339" display="№2" address="https://sun9-51.userapi.com/c636422/v636422028/4bc0e/Bi4fVF34AhY.jpg" tooltip="https://sun9-51.userapi.com/c636422/v636422028/4bc0e/Bi4fVF34AhY.jpg"/>
+    <hyperlink ref="I93" r:id="rId340" display="№3" address="https://sun9-2.userapi.com/c636422/v636422028/4bc16/P1Jqss8iInc.jpg" tooltip="https://sun9-2.userapi.com/c636422/v636422028/4bc16/P1Jqss8iInc.jpg"/>
+    <hyperlink ref="J93" r:id="rId341" display="№4" address="https://sun9-7.userapi.com/c636422/v636422028/4bc1e/SkSeQ26-IsY.jpg" tooltip="https://sun9-7.userapi.com/c636422/v636422028/4bc1e/SkSeQ26-IsY.jpg"/>
+    <hyperlink ref="K93" r:id="rId342" display="№5" address="https://sun9-57.userapi.com/c636422/v636422028/4bc26/K-Oj7L8TSp4.jpg" tooltip="https://sun9-57.userapi.com/c636422/v636422028/4bc26/K-Oj7L8TSp4.jpg"/>
+    <hyperlink ref="G94" r:id="rId343" display="№1" address="https://sun9-25.userapi.com/c636422/v636422028/4bbdc/mCQ_nmGJt3w.jpg" tooltip="https://sun9-25.userapi.com/c636422/v636422028/4bbdc/mCQ_nmGJt3w.jpg"/>
+    <hyperlink ref="H94" r:id="rId344" display="№2" address="https://sun9-15.userapi.com/c636422/v636422028/4bbe4/ydsI5TggecU.jpg" tooltip="https://sun9-15.userapi.com/c636422/v636422028/4bbe4/ydsI5TggecU.jpg"/>
+    <hyperlink ref="I94" r:id="rId345" display="№3" address="https://sun9-60.userapi.com/c636422/v636422028/4bbec/oC8x9eZXLwk.jpg" tooltip="https://sun9-60.userapi.com/c636422/v636422028/4bbec/oC8x9eZXLwk.jpg"/>
+    <hyperlink ref="J94" r:id="rId346" display="№4" address="https://sun9-44.userapi.com/c636422/v636422028/4bbf4/139RKlfgQQQ.jpg" tooltip="https://sun9-44.userapi.com/c636422/v636422028/4bbf4/139RKlfgQQQ.jpg"/>
+    <hyperlink ref="G95" r:id="rId347" display="№1" address="https://sun9-18.userapi.com/c636422/v636422028/4bb94/PyuEqbFT3HM.jpg" tooltip="https://sun9-18.userapi.com/c636422/v636422028/4bb94/PyuEqbFT3HM.jpg"/>
+    <hyperlink ref="H95" r:id="rId348" display="№2" address="https://sun9-14.userapi.com/c636422/v636422028/4bb9c/jx2Tu1ih_aw.jpg" tooltip="https://sun9-14.userapi.com/c636422/v636422028/4bb9c/jx2Tu1ih_aw.jpg"/>
+    <hyperlink ref="I95" r:id="rId349" display="№3" address="https://sun9-12.userapi.com/c636422/v636422028/4bba4/o20uIVYd5n0.jpg" tooltip="https://sun9-12.userapi.com/c636422/v636422028/4bba4/o20uIVYd5n0.jpg"/>
+    <hyperlink ref="J95" r:id="rId350" display="№4" address="https://sun9-37.userapi.com/c636422/v636422028/4bbac/-ncznW1bdY0.jpg" tooltip="https://sun9-37.userapi.com/c636422/v636422028/4bbac/-ncznW1bdY0.jpg"/>
+    <hyperlink ref="K95" r:id="rId351" display="№5" address="https://sun9-2.userapi.com/c636422/v636422028/4bbb4/hCxvmkFF4v4.jpg" tooltip="https://sun9-2.userapi.com/c636422/v636422028/4bbb4/hCxvmkFF4v4.jpg"/>
+    <hyperlink ref="L95" r:id="rId352" display="№6" address="https://sun9-52.userapi.com/c636422/v636422028/4bbbc/YLPbbnEJfj4.jpg" tooltip="https://sun9-52.userapi.com/c636422/v636422028/4bbbc/YLPbbnEJfj4.jpg"/>
+    <hyperlink ref="M95" r:id="rId353" display="№7" address="https://sun9-39.userapi.com/c636422/v636422028/4bbc4/mq5Asjtl9tQ.jpg" tooltip="https://sun9-39.userapi.com/c636422/v636422028/4bbc4/mq5Asjtl9tQ.jpg"/>
+    <hyperlink ref="N95" r:id="rId354" display="№8" address="https://sun9-62.userapi.com/c636422/v636422028/4bbcc/b2quU7McWFc.jpg" tooltip="https://sun9-62.userapi.com/c636422/v636422028/4bbcc/b2quU7McWFc.jpg"/>
+    <hyperlink ref="O95" r:id="rId355" display="№9" address="https://sun9-25.userapi.com/c636422/v636422028/4bbd4/y0_uUmt2z7g.jpg" tooltip="https://sun9-25.userapi.com/c636422/v636422028/4bbd4/y0_uUmt2z7g.jpg"/>
+    <hyperlink ref="G96" r:id="rId356" display="№1" address="https://sun9-27.userapi.com/c636422/v636422028/4bb76/wy8odtP__Wo.jpg" tooltip="https://sun9-27.userapi.com/c636422/v636422028/4bb76/wy8odtP__Wo.jpg"/>
+    <hyperlink ref="H96" r:id="rId357" display="№2" address="https://sun9-54.userapi.com/c636422/v636422028/4bb7d/c8xEHDaoUXc.jpg" tooltip="https://sun9-54.userapi.com/c636422/v636422028/4bb7d/c8xEHDaoUXc.jpg"/>
+    <hyperlink ref="I96" r:id="rId358" display="№3" address="https://sun9-3.userapi.com/c636422/v636422028/4bb85/t_yYuLF8iG0.jpg" tooltip="https://sun9-3.userapi.com/c636422/v636422028/4bb85/t_yYuLF8iG0.jpg"/>
+    <hyperlink ref="J96" r:id="rId359" display="№4" address="https://sun9-63.userapi.com/c636422/v636422028/4bb8c/hipFOlwBb1U.jpg" tooltip="https://sun9-63.userapi.com/c636422/v636422028/4bb8c/hipFOlwBb1U.jpg"/>
+    <hyperlink ref="G97" r:id="rId360" display="№1" address="https://sun9-72.userapi.com/c636422/v636422028/4bb3d/-OCi9-1U4VM.jpg" tooltip="https://sun9-72.userapi.com/c636422/v636422028/4bb3d/-OCi9-1U4VM.jpg"/>
+    <hyperlink ref="H97" r:id="rId361" display="№2" address="https://sun9-7.userapi.com/c636422/v636422028/4bb44/ZKL28zlB54I.jpg" tooltip="https://sun9-7.userapi.com/c636422/v636422028/4bb44/ZKL28zlB54I.jpg"/>
+    <hyperlink ref="I97" r:id="rId362" display="№3" address="https://sun9-28.userapi.com/c636422/v636422028/4bb4b/cEScNRoGOow.jpg" tooltip="https://sun9-28.userapi.com/c636422/v636422028/4bb4b/cEScNRoGOow.jpg"/>
+    <hyperlink ref="J97" r:id="rId363" display="№4" address="https://sun9-48.userapi.com/c636422/v636422028/4bb52/UqQjJJtgUFM.jpg" tooltip="https://sun9-48.userapi.com/c636422/v636422028/4bb52/UqQjJJtgUFM.jpg"/>
+    <hyperlink ref="K97" r:id="rId364" display="№5" address="https://sun9-37.userapi.com/c636422/v636422028/4bb59/meMjsy5j1nA.jpg" tooltip="https://sun9-37.userapi.com/c636422/v636422028/4bb59/meMjsy5j1nA.jpg"/>
+    <hyperlink ref="L97" r:id="rId365" display="№6" address="https://sun9-36.userapi.com/c636422/v636422028/4bb60/vy_taWhPK78.jpg" tooltip="https://sun9-36.userapi.com/c636422/v636422028/4bb60/vy_taWhPK78.jpg"/>
+    <hyperlink ref="M97" r:id="rId366" display="№7" address="https://sun9-8.userapi.com/c636422/v636422028/4bb68/l_5Djv5EvHw.jpg" tooltip="https://sun9-8.userapi.com/c636422/v636422028/4bb68/l_5Djv5EvHw.jpg"/>
+    <hyperlink ref="N97" r:id="rId367" display="№8" address="https://sun9-74.userapi.com/c636422/v636422028/4bb6f/uN-hbLGAzbQ.jpg" tooltip="https://sun9-74.userapi.com/c636422/v636422028/4bb6f/uN-hbLGAzbQ.jpg"/>
+    <hyperlink ref="G98" r:id="rId368" display="№1" address="https://sun9-50.userapi.com/c636422/v636422028/4bb0a/rxnEfwWWPXE.jpg" tooltip="https://sun9-50.userapi.com/c636422/v636422028/4bb0a/rxnEfwWWPXE.jpg"/>
+    <hyperlink ref="H98" r:id="rId369" display="№2" address="https://sun9-56.userapi.com/c636422/v636422028/4bb12/FhAG_cw1nW4.jpg" tooltip="https://sun9-56.userapi.com/c636422/v636422028/4bb12/FhAG_cw1nW4.jpg"/>
+    <hyperlink ref="I98" r:id="rId370" display="№3" address="https://sun9-27.userapi.com/c636422/v636422028/4bb19/w0UImkgxFLk.jpg" tooltip="https://sun9-27.userapi.com/c636422/v636422028/4bb19/w0UImkgxFLk.jpg"/>
+    <hyperlink ref="J98" r:id="rId371" display="№4" address="https://sun9-76.userapi.com/c636422/v636422028/4bb20/-l3rmEvRXng.jpg" tooltip="https://sun9-76.userapi.com/c636422/v636422028/4bb20/-l3rmEvRXng.jpg"/>
+    <hyperlink ref="K98" r:id="rId372" display="№5" address="https://sun9-32.userapi.com/c636422/v636422028/4bb27/4to3lFs1c44.jpg" tooltip="https://sun9-32.userapi.com/c636422/v636422028/4bb27/4to3lFs1c44.jpg"/>
+    <hyperlink ref="L98" r:id="rId373" display="№6" address="https://sun9-24.userapi.com/c636422/v636422028/4bb2f/dk9XP0QH4ks.jpg" tooltip="https://sun9-24.userapi.com/c636422/v636422028/4bb2f/dk9XP0QH4ks.jpg"/>
+    <hyperlink ref="M98" r:id="rId374" display="№7" address="https://sun9-12.userapi.com/c636422/v636422028/4bb36/DzFsYaJDllU.jpg" tooltip="https://sun9-12.userapi.com/c636422/v636422028/4bb36/DzFsYaJDllU.jpg"/>
+    <hyperlink ref="G99" r:id="rId375" display="№1" address="https://sun9-55.userapi.com/c636422/v636422028/4bad8/wuBlYXXbYX0.jpg" tooltip="https://sun9-55.userapi.com/c636422/v636422028/4bad8/wuBlYXXbYX0.jpg"/>
+    <hyperlink ref="H99" r:id="rId376" display="№2" address="https://sun9-53.userapi.com/c636422/v636422028/4badf/YUx95PObnrE.jpg" tooltip="https://sun9-53.userapi.com/c636422/v636422028/4badf/YUx95PObnrE.jpg"/>
+    <hyperlink ref="I99" r:id="rId377" display="№3" address="https://sun9-39.userapi.com/c636422/v636422028/4bae6/cN0WIvoaMU8.jpg" tooltip="https://sun9-39.userapi.com/c636422/v636422028/4bae6/cN0WIvoaMU8.jpg"/>
+    <hyperlink ref="J99" r:id="rId378" display="№4" address="https://sun9-68.userapi.com/c636422/v636422028/4baed/rWrKK8Wfyyw.jpg" tooltip="https://sun9-68.userapi.com/c636422/v636422028/4baed/rWrKK8Wfyyw.jpg"/>
+    <hyperlink ref="K99" r:id="rId379" display="№5" address="https://sun9-23.userapi.com/c636422/v636422028/4baf4/ohgVWKABU48.jpg" tooltip="https://sun9-23.userapi.com/c636422/v636422028/4baf4/ohgVWKABU48.jpg"/>
+    <hyperlink ref="L99" r:id="rId380" display="№6" address="https://sun9-20.userapi.com/c636422/v636422028/4bafc/RPK-a2hNSiY.jpg" tooltip="https://sun9-20.userapi.com/c636422/v636422028/4bafc/RPK-a2hNSiY.jpg"/>
+    <hyperlink ref="M99" r:id="rId381" display="№7" address="https://sun9-69.userapi.com/c636422/v636422028/4bb03/rw6-pMR8mb0.jpg" tooltip="https://sun9-69.userapi.com/c636422/v636422028/4bb03/rw6-pMR8mb0.jpg"/>
+    <hyperlink ref="G100" r:id="rId382" display="№1" address="https://sun9-24.userapi.com/c636422/v636422028/4baa9/lSxn4QAf9_A.jpg" tooltip="https://sun9-24.userapi.com/c636422/v636422028/4baa9/lSxn4QAf9_A.jpg"/>
+    <hyperlink ref="H100" r:id="rId383" display="№2" address="https://sun9-74.userapi.com/c636422/v636422028/4bab1/cNiVVKeavCA.jpg" tooltip="https://sun9-74.userapi.com/c636422/v636422028/4bab1/cNiVVKeavCA.jpg"/>
+    <hyperlink ref="I100" r:id="rId384" display="№3" address="https://sun9-69.userapi.com/c636422/v636422028/4bab9/0vlgYp-I17g.jpg" tooltip="https://sun9-69.userapi.com/c636422/v636422028/4bab9/0vlgYp-I17g.jpg"/>
+    <hyperlink ref="J100" r:id="rId385" display="№4" address="https://sun9-30.userapi.com/c636422/v636422028/4bac1/7I9nWQyHg9g.jpg" tooltip="https://sun9-30.userapi.com/c636422/v636422028/4bac1/7I9nWQyHg9g.jpg"/>
+    <hyperlink ref="K100" r:id="rId386" display="№5" address="https://sun9-6.userapi.com/c636422/v636422028/4bac9/l9CVmnVi2cs.jpg" tooltip="https://sun9-6.userapi.com/c636422/v636422028/4bac9/l9CVmnVi2cs.jpg"/>
+    <hyperlink ref="L100" r:id="rId387" display="№6" address="https://sun9-64.userapi.com/c636422/v636422028/4bad1/Wn5hamwcPoY.jpg" tooltip="https://sun9-64.userapi.com/c636422/v636422028/4bad1/Wn5hamwcPoY.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
